--- a/raw/xlsx/numerals-fali1264-1.xlsx
+++ b/raw/xlsx/numerals-fali1264-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibiko/Documents/Developments/shh_git/numeralbank/numerals/raw/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibiko/Documents/Developments/shh_git/numeralbank/numeralbank-internal/datasets/numerals/raw/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1B87A4-5CBA-984E-AC06-55DABF4C175B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD4BAC-F4C4-D949-A975-7348089E8427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="520" windowWidth="27000" windowHeight="11700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="520" windowWidth="27000" windowHeight="15780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -254,15 +254,11 @@
     <t>fali1264</t>
   </si>
   <si>
-    <t xml:space="preserve">South Fali or Fali-Tinguelin has a deciaml system. The data was taken from Ram dialect 
-at Pitoa, Cameroon during a workshop involving the following people identified by village:
-Alikoura David (Banaye), Boubakary Jonas (Toro), Hassana Joseph (Sonayo), Mbadjo Elisée (Ram), 
-Ndoflaguine Victor (Ram), Nyarane Bienvenu (Toro), Onne Labaï (Ndounja), Oumarou Jean (Boulgou), 
-and Ramban Celestin (Ram)
+    <t>South Fali (Fali-Tinguelin), Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Fali or Fali-Tinguelin has a deciaml system. The data was taken from Ram dialect at Pitoa, Cameroon during a workshop involving the following people identified by village: Alikoura David (Banaye), Boubakary Jonas (Toro), Hassana Joseph (Sonayo), Mbadjo Elisée (Ram), Ndoflaguine Victor (Ram), Nyarane Bienvenu (Toro), Onne Labaï (Ndounja), Oumarou Jean (Boulgou), and Ramban Celestin (Ram)
 </t>
-  </si>
-  <si>
-    <t>South Fali (Fali-Tinguelin), Cameroon</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1200,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1234,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31" x14ac:dyDescent="0.2">
@@ -1324,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
